--- a/@Papers/SPE2022/Final/1_TORIS_MODEL/TORIS_boost_Stack.xlsx
+++ b/@Papers/SPE2022/Final/1_TORIS_MODEL/TORIS_boost_Stack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\@Papers\SPE2022\Final\1_TORIS_MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD223F8-38A8-427E-BF50-D179FCC2F931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B215CBEF-C011-4FED-9D63-3A72D1D42803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C7B194DC-44CB-4D29-AEAC-1AF9DABABD7E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>BaggingRegressor</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>RandomForestRegressor</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>Untuned</t>
+  </si>
+  <si>
+    <t>cb</t>
+  </si>
+  <si>
+    <t>knn</t>
   </si>
 </sst>
 </file>
@@ -508,24 +520,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACDB6D4-631D-4A2F-91EF-C322EA810623}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:F6"/>
+      <selection activeCell="A2" sqref="A2:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="27" style="1"/>
+    <col min="1" max="7" width="31.28515625" style="1"/>
+    <col min="8" max="8" width="31.28515625" style="2"/>
+    <col min="9" max="16384" width="31.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -544,10 +549,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -576,10 +581,10 @@
       <c r="F2" s="4">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>9.3899999999999997E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>7.3099999999999998E-2</v>
       </c>
       <c r="I2" s="4">
@@ -608,10 +613,10 @@
       <c r="F3" s="1">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="I3" s="1">
@@ -640,10 +645,10 @@
       <c r="F4" s="1">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>8.2900000000000001E-2</v>
       </c>
       <c r="I4" s="1">
@@ -672,10 +677,10 @@
       <c r="F5" s="4">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="I5" s="4">
@@ -704,10 +709,10 @@
       <c r="F6" s="4">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>0.1409</v>
       </c>
       <c r="I6" s="4">
@@ -736,10 +741,10 @@
       <c r="F7" s="4">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.10249999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>-0.1052</v>
       </c>
       <c r="I7" s="4">
@@ -768,10 +773,10 @@
       <c r="F8" s="4">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>0.1169</v>
       </c>
       <c r="I8" s="4">
@@ -800,10 +805,10 @@
       <c r="F9" s="4">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>1.09E-2</v>
       </c>
       <c r="I9" s="4">
@@ -832,10 +837,10 @@
       <c r="F10" s="4">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>1.09E-2</v>
       </c>
       <c r="I10" s="4">
@@ -864,10 +869,10 @@
       <c r="F11" s="4">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>1.09E-2</v>
       </c>
       <c r="I11" s="4">
@@ -875,6 +880,84 @@
       </c>
       <c r="J11" s="4">
         <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.34620000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.01E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.3553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1037</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-1.5299999999999999E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.36749999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -888,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD2E052-6A35-449E-B221-E1D60C50A903}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,12 +1013,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -944,126 +1027,120 @@
         <v>13</v>
       </c>
       <c r="E2" s="4">
-        <v>8.1000000000000003E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="F2" s="4">
-        <v>1.0500000000000001E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="G2" s="4">
-        <v>0.10249999999999999</v>
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="H2" s="5">
-        <v>-0.1052</v>
+        <v>0.1409</v>
       </c>
       <c r="I2" s="4">
-        <v>7.8700000000000006E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J2" s="4">
-        <v>0.2999</v>
+        <v>0.28060000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9.7100000000000006E-2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7.4200000000000002E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.29149999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4">
+        <v>7.3099999999999998E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.1169</v>
+      </c>
+      <c r="I3" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.09E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>7.4200000000000002E-2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.5399999999999995E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.34620000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.09E-2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>7.4200000000000002E-2</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.29399999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.28270000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1072,26 +1149,26 @@
         <v>10</v>
       </c>
       <c r="E6" s="4">
-        <v>7.7600000000000002E-2</v>
+        <v>7.5600000000000001E-2</v>
       </c>
       <c r="F6" s="4">
-        <v>9.4000000000000004E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="G6" s="4">
-        <v>9.7000000000000003E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="H6" s="5">
-        <v>1.09E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="I6" s="4">
-        <v>7.4200000000000002E-2</v>
+        <v>7.17E-2</v>
       </c>
       <c r="J6" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+        <v>0.2888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1122,137 +1199,221 @@
         <v>0.28910000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.01E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.3553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4">
-        <v>7.5600000000000001E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="G8" s="4">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7.17E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.2888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>8.2900000000000001E-2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.28270000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="4">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.09E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4">
-        <v>7.3099999999999998E-2</v>
+        <v>7.7600000000000002E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>8.3999999999999995E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="G10" s="4">
-        <v>9.1600000000000001E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H10" s="5">
-        <v>0.1169</v>
+        <v>1.09E-2</v>
       </c>
       <c r="I10" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="J10" s="4">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G11" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1.09E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.29149999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.09E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1037</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-1.5299999999999999E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.36749999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4">
-        <v>7.3400000000000007E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.1409</v>
-      </c>
-      <c r="I11" s="4">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.28060000000000002</v>
+      <c r="E14" s="4">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-0.1052</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.2999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
-    <sortCondition ref="H2:H12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
+    <sortCondition descending="1" ref="H2:H14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
